--- a/PayScale Sample (altered).xlsx
+++ b/PayScale Sample (altered).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>IPEDS</t>
   </si>
@@ -69,6 +69,9 @@
     <t>School of Barista Arts</t>
   </si>
   <si>
+    <t>University of Coffee Mongers</t>
+  </si>
+  <si>
     <t>IPEDS ID</t>
   </si>
   <si>
@@ -370,6 +373,12 @@
   </si>
   <si>
     <t>AeroPress Arts</t>
+  </si>
+  <si>
+    <t>Developing your Palate: A Test in Tasting</t>
+  </si>
+  <si>
+    <t>Basic Barista-ing</t>
   </si>
 </sst>
 </file>
@@ -379,7 +388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -391,12 +400,17 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -443,28 +457,28 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1836,8 +1850,12 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3">
+        <v>999999</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>17</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2212,16 +2230,16 @@
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s" s="2">
         <v>2</v>
@@ -2265,7 +2283,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>9</v>
@@ -2280,7 +2298,7 @@
         <v>122800</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s" s="2">
         <v>15</v>
@@ -2312,43 +2330,43 @@
         <v>13</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>54</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
         <v>82000</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1">
@@ -2359,7 +2377,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>42</v>
@@ -2374,10 +2392,10 @@
         <v>120700</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2">
         <v>45600</v>
@@ -2406,7 +2424,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>52</v>
@@ -2453,43 +2471,43 @@
         <v>13</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>24</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <v>81900</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
@@ -2500,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>26</v>
@@ -2515,7 +2533,7 @@
         <v>76000</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>15</v>
@@ -2547,7 +2565,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -2562,7 +2580,7 @@
         <v>110000</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>15</v>
@@ -2594,7 +2612,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>23</v>
@@ -2609,10 +2627,10 @@
         <v>95800</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2">
         <v>35400</v>
@@ -2641,7 +2659,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>44</v>
@@ -2656,7 +2674,7 @@
         <v>123800</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>15</v>
@@ -2688,7 +2706,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>45</v>
@@ -2703,7 +2721,7 @@
         <v>150000</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>15</v>
@@ -2735,7 +2753,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2">
         <v>40</v>
@@ -2750,10 +2768,10 @@
         <v>134300</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" s="2">
         <v>62000</v>
@@ -2782,7 +2800,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2">
         <v>13</v>
@@ -2797,7 +2815,7 @@
         <v>72300</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>15</v>
@@ -2829,43 +2847,43 @@
         <v>13</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2">
         <v>27</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
         <v>84000</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1">
@@ -2876,7 +2894,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2">
         <v>14</v>
@@ -2923,7 +2941,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2">
         <v>11</v>
@@ -2938,7 +2956,7 @@
         <v>144000</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>15</v>
@@ -2970,43 +2988,43 @@
         <v>13</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2">
         <v>38</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
         <v>80000</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="1">
@@ -3017,43 +3035,43 @@
         <v>13</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2">
         <v>16</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2">
         <v>88000</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="17" customHeight="1">
@@ -3064,43 +3082,43 @@
         <v>13</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2">
         <v>31</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2">
         <v>63000</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="17" customHeight="1">
@@ -3111,43 +3129,43 @@
         <v>13</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2">
         <v>30</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2">
         <v>111000</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="1">
@@ -3158,7 +3176,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2">
         <v>51</v>
@@ -3205,7 +3223,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2">
         <v>50</v>
@@ -3220,7 +3238,7 @@
         <v>113800</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>15</v>
@@ -3281,16 +3299,16 @@
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s" s="2">
         <v>2</v>
@@ -3334,7 +3352,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>9</v>
@@ -3381,7 +3399,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>54</v>
@@ -3396,7 +3414,7 @@
         <v>50300</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>15</v>
@@ -3428,7 +3446,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>42</v>
@@ -3443,7 +3461,7 @@
         <v>49100</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>15</v>
@@ -3475,7 +3493,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>52</v>
@@ -3522,43 +3540,43 @@
         <v>13</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>24</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <v>51500</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
@@ -3569,7 +3587,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -3584,7 +3602,7 @@
         <v>52300</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>15</v>
@@ -3616,7 +3634,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>26</v>
@@ -3631,7 +3649,7 @@
         <v>48500</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>15</v>
@@ -3663,7 +3681,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -3710,7 +3728,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>23</v>
@@ -3725,7 +3743,7 @@
         <v>46600</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>15</v>
@@ -3757,7 +3775,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>44</v>
@@ -3772,7 +3790,7 @@
         <v>75000</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>15</v>
@@ -3804,7 +3822,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>45</v>
@@ -3851,7 +3869,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2">
         <v>40</v>
@@ -3866,7 +3884,7 @@
         <v>58500</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>15</v>
@@ -3898,7 +3916,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
@@ -3913,7 +3931,7 @@
         <v>53400</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>15</v>
@@ -3945,43 +3963,43 @@
         <v>13</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2">
         <v>13</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
         <v>35000</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="17" customHeight="1">
@@ -3992,43 +4010,43 @@
         <v>13</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2">
         <v>27</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
         <v>42300</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="1">
@@ -4039,7 +4057,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2">
         <v>14</v>
@@ -4086,7 +4104,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2">
         <v>11</v>
@@ -4133,7 +4151,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2">
         <v>38</v>
@@ -4148,7 +4166,7 @@
         <v>51100</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>15</v>
@@ -4180,43 +4198,43 @@
         <v>13</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2">
         <v>16</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2">
         <v>63500</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="1">
@@ -4227,43 +4245,43 @@
         <v>13</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2">
         <v>31</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2">
         <v>22300</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="17" customHeight="1">
@@ -4274,7 +4292,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2">
         <v>30</v>
@@ -4289,7 +4307,7 @@
         <v>85500</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>15</v>
@@ -4321,7 +4339,7 @@
         <v>13</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2">
         <v>51</v>
@@ -4336,10 +4354,10 @@
         <v>92000</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" s="2">
         <v>34700</v>
@@ -4368,7 +4386,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2">
         <v>50</v>
@@ -4444,16 +4462,16 @@
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s" s="2">
         <v>2</v>
@@ -4497,43 +4515,43 @@
         <v>13</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2">
         <v>30.18</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>60000</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1">
@@ -4544,7 +4562,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
         <v>14.09</v>
@@ -4559,7 +4577,7 @@
         <v>105300</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>15</v>
@@ -4591,43 +4609,43 @@
         <v>13</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2">
         <v>30.08</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
         <v>92000</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
@@ -4638,43 +4656,43 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
         <v>4.05</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>40000</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1">
@@ -4685,43 +4703,43 @@
         <v>13</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2">
         <v>4.03</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <v>52500</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1">
@@ -4732,7 +4750,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2">
         <v>4.02</v>
@@ -4779,43 +4797,43 @@
         <v>13</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2">
         <v>14.43</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>52000</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="17" customHeight="1">
@@ -4826,7 +4844,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2">
         <v>45.11</v>
@@ -4841,7 +4859,7 @@
         <v>48800</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>15</v>
@@ -4873,7 +4891,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2">
         <v>45.1</v>
@@ -4888,7 +4906,7 @@
         <v>60300</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>15</v>
@@ -4920,43 +4938,43 @@
         <v>13</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2">
         <v>51.22</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
         <v>48000</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1">
@@ -4967,43 +4985,43 @@
         <v>13</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2">
         <v>52.2</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2">
         <v>92400</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="17" customHeight="1">
@@ -5014,43 +5032,43 @@
         <v>13</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2">
         <v>27.01</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>34600</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1">
@@ -5061,43 +5079,43 @@
         <v>13</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2">
         <v>27.03</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
         <v>68200</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1">
@@ -5108,7 +5126,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>54.01</v>
@@ -5123,7 +5141,7 @@
         <v>50300</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>15</v>
@@ -5155,7 +5173,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2">
         <v>45.09</v>
@@ -5202,43 +5220,43 @@
         <v>13</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2">
         <v>45.02</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
         <v>38700</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="1">
@@ -5249,7 +5267,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2">
         <v>45.06</v>
@@ -5296,43 +5314,43 @@
         <v>13</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2">
         <v>45.07</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2">
         <v>75000</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="17" customHeight="1">
@@ -5343,7 +5361,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2">
         <v>51.38</v>
@@ -5358,10 +5376,10 @@
         <v>105900</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="2">
         <v>52000</v>
@@ -5390,7 +5408,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2">
         <v>52.11</v>
@@ -5405,7 +5423,7 @@
         <v>71000</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>15</v>
@@ -5437,43 +5455,43 @@
         <v>13</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2">
         <v>52.1</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2">
         <v>31200</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="17" customHeight="1">
@@ -5484,7 +5502,7 @@
         <v>13</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2">
         <v>52.15</v>
@@ -5531,7 +5549,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2">
         <v>52.14</v>
@@ -5546,7 +5564,7 @@
         <v>81500</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>15</v>
@@ -5578,7 +5596,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2">
         <v>38.01</v>
@@ -5593,7 +5611,7 @@
         <v>51800</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>15</v>
@@ -5625,43 +5643,43 @@
         <v>13</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2">
         <v>38.02</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2">
         <v>30500</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1">
@@ -5672,43 +5690,43 @@
         <v>13</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2">
         <v>50.09</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2">
         <v>26600</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="17" customHeight="1">
@@ -5719,7 +5737,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2">
         <v>50.06</v>
@@ -5734,7 +5752,7 @@
         <v>73100</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>15</v>
@@ -5766,7 +5784,7 @@
         <v>13</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2">
         <v>50.07</v>
@@ -5781,7 +5799,7 @@
         <v>50800</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>15</v>
@@ -5813,7 +5831,7 @@
         <v>13</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2">
         <v>50.04</v>
@@ -5828,7 +5846,7 @@
         <v>46200</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>15</v>
@@ -5860,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2">
         <v>50.05</v>
@@ -5875,7 +5893,7 @@
         <v>54000</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>15</v>
@@ -5907,43 +5925,43 @@
         <v>13</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2">
         <v>11.01</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2">
         <v>88000</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="17" customHeight="1">
@@ -5954,43 +5972,43 @@
         <v>13</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2">
         <v>52.07</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2">
         <v>50000</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="17" customHeight="1">
@@ -6001,7 +6019,7 @@
         <v>13</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2">
         <v>52.02</v>
@@ -6048,7 +6066,7 @@
         <v>13</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2">
         <v>52.08</v>
@@ -6095,43 +6113,43 @@
         <v>13</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D36" s="2">
         <v>31.05</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" s="2">
         <v>22300</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="17" customHeight="1">
@@ -6142,7 +6160,7 @@
         <v>13</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" s="2">
         <v>52.03</v>
@@ -6189,43 +6207,43 @@
         <v>13</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2">
         <v>24.01</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F38" s="2">
         <v>51500</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="17" customHeight="1">
@@ -6236,43 +6254,43 @@
         <v>13</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2">
         <v>14.14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39" s="2">
         <v>70000</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="17" customHeight="1">
@@ -6283,7 +6301,7 @@
         <v>13</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D40" s="2">
         <v>14.1</v>
@@ -6330,43 +6348,43 @@
         <v>13</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D41" s="2">
         <v>40.06</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" s="2">
         <v>43000</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="17" customHeight="1">
@@ -6377,7 +6395,7 @@
         <v>13</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D42" s="2">
         <v>14.19</v>
@@ -6392,7 +6410,7 @@
         <v>84000</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>15</v>
@@ -6424,43 +6442,43 @@
         <v>13</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D43" s="2">
         <v>14.18</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F43" s="2">
         <v>59400</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="17" customHeight="1">
@@ -6471,43 +6489,43 @@
         <v>13</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" s="2">
         <v>14.27</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F44" s="2">
         <v>64800</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="17" customHeight="1">
@@ -6518,43 +6536,43 @@
         <v>13</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" s="2">
         <v>44.07</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F45" s="2">
         <v>31200</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="17" customHeight="1">
@@ -6565,7 +6583,7 @@
         <v>13</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D46" s="2">
         <v>44.05</v>
@@ -6580,7 +6598,7 @@
         <v>58000</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>15</v>
@@ -6612,43 +6630,43 @@
         <v>13</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D47" s="2">
         <v>44.04</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47" s="2">
         <v>80000</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="17" customHeight="1">
@@ -6659,43 +6677,43 @@
         <v>13</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D48" s="2">
         <v>5.02</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F48" s="2">
         <v>62300</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="17" customHeight="1">
@@ -6706,7 +6724,7 @@
         <v>13</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D49" s="2">
         <v>14.07</v>
@@ -6721,7 +6739,7 @@
         <v>72500</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>15</v>
@@ -6753,7 +6771,7 @@
         <v>13</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D50" s="2">
         <v>14.05</v>
@@ -6768,7 +6786,7 @@
         <v>65000</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>15</v>
@@ -6800,7 +6818,7 @@
         <v>13</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D51" s="2">
         <v>14.02</v>
@@ -6847,7 +6865,7 @@
         <v>13</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D52" s="2">
         <v>14.08</v>
@@ -6862,7 +6880,7 @@
         <v>67000</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>15</v>
@@ -6894,7 +6912,7 @@
         <v>13</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D53" s="2">
         <v>23.13</v>
@@ -6909,7 +6927,7 @@
         <v>42800</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>15</v>
@@ -6941,43 +6959,43 @@
         <v>13</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D54" s="2">
         <v>16.09</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F54" s="2">
         <v>63500</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="17" customHeight="1">
@@ -6988,43 +7006,43 @@
         <v>13</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" s="2">
         <v>13.01</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F55" s="2">
         <v>35000</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="17" customHeight="1">
@@ -7035,7 +7053,7 @@
         <v>13</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D56" s="2">
         <v>9.09</v>
@@ -7050,7 +7068,7 @@
         <v>60000</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>15</v>
@@ -7082,7 +7100,7 @@
         <v>13</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D57" s="2">
         <v>14.35</v>
@@ -7129,7 +7147,7 @@
         <v>13</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D58" s="2">
         <v>9.01</v>
@@ -7176,7 +7194,7 @@
         <v>13</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D59" s="2">
         <v>9.039999999999999</v>
@@ -7191,10 +7209,10 @@
         <v>56300</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J59" s="2">
         <v>31200</v>
@@ -7223,43 +7241,43 @@
         <v>13</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D60" s="2">
         <v>9.07</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F60" s="2">
         <v>100000</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="17" customHeight="1">
@@ -7270,7 +7288,7 @@
         <v>13</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D61" s="2">
         <v>42.01</v>
@@ -7285,7 +7303,7 @@
         <v>48800</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>15</v>
@@ -7317,7 +7335,7 @@
         <v>13</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D62" s="2">
         <v>23.01</v>
@@ -7332,7 +7350,7 @@
         <v>56600</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>15</v>
@@ -7364,43 +7382,43 @@
         <v>13</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D63" s="2">
         <v>26.02</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F63" s="2">
         <v>37500</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="17" customHeight="1">
@@ -7411,7 +7429,7 @@
         <v>13</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D64" s="2">
         <v>26.01</v>
@@ -7426,7 +7444,7 @@
         <v>48000</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>15</v>
@@ -7458,43 +7476,43 @@
         <v>13</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D65" s="2">
         <v>40.08</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F65" s="2">
         <v>53300</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="17" customHeight="1">
@@ -7505,43 +7523,43 @@
         <v>13</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D66" s="2">
         <v>14.25</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F66" s="2">
         <v>110500</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="17" customHeight="1">
@@ -7552,7 +7570,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D67" s="2">
         <v>40.05</v>
@@ -7567,7 +7585,7 @@
         <v>57000</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>15</v>
@@ -7599,7 +7617,7 @@
         <v>13</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D68" s="2">
         <v>26.15</v>
@@ -7614,7 +7632,7 @@
         <v>55800</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>15</v>
@@ -7646,43 +7664,43 @@
         <v>13</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D69" s="2">
         <v>26.12</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F69" s="2">
         <v>25000</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="17" customHeight="1">
@@ -7693,7 +7711,7 @@
         <v>13</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D70" s="2">
         <v>26.13</v>
@@ -7708,7 +7726,7 @@
         <v>52900</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>15</v>
@@ -7743,7 +7761,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -7769,16 +7787,16 @@
   <sheetData>
     <row r="1" ht="17" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s" s="2">
         <v>2</v>
@@ -7822,7 +7840,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
         <v>14.09</v>
@@ -7837,7 +7855,7 @@
         <v>125000</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s" s="2">
         <v>15</v>
@@ -7869,7 +7887,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2">
         <v>4.02</v>
@@ -7916,43 +7934,43 @@
         <v>13</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2">
         <v>52.2</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
         <v>135000</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
@@ -7963,43 +7981,43 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>54.01</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>82000</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1">
@@ -8010,7 +8028,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2">
         <v>45.09</v>
@@ -8025,10 +8043,10 @@
         <v>185000</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2">
         <v>47000</v>
@@ -8057,43 +8075,43 @@
         <v>13</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2">
         <v>45.02</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>72500</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="17" customHeight="1">
@@ -8104,7 +8122,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2">
         <v>45.06</v>
@@ -8119,7 +8137,7 @@
         <v>150000</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>15</v>
@@ -8151,43 +8169,43 @@
         <v>13</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2">
         <v>45.07</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>88000</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1">
@@ -8198,43 +8216,43 @@
         <v>13</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2">
         <v>52.11</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
         <v>115000</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1">
@@ -8245,43 +8263,43 @@
         <v>13</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2">
         <v>52.1</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
         <v>47400</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1">
@@ -8292,7 +8310,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2">
         <v>50.06</v>
@@ -8307,7 +8325,7 @@
         <v>127500</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>15</v>
@@ -8339,43 +8357,43 @@
         <v>13</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2">
         <v>50.07</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>52500</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1">
@@ -8386,43 +8404,43 @@
         <v>13</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2">
         <v>50.04</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
         <v>117500</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1">
@@ -8433,43 +8451,43 @@
         <v>13</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2">
         <v>50.05</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
         <v>47100</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="17" customHeight="1">
@@ -8480,43 +8498,43 @@
         <v>13</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2">
         <v>11.09</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
         <v>110000</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="1">
@@ -8527,43 +8545,43 @@
         <v>13</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2">
         <v>52.07</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2">
         <v>240000</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="1">
@@ -8574,7 +8592,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2">
         <v>52.02</v>
@@ -8589,7 +8607,7 @@
         <v>153800</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>15</v>
@@ -8621,7 +8639,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2">
         <v>52.03</v>
@@ -8668,7 +8686,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2">
         <v>52.08</v>
@@ -8683,7 +8701,7 @@
         <v>110000</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>15</v>
@@ -8715,43 +8733,43 @@
         <v>13</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2">
         <v>31.05</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2">
         <v>63000</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="17" customHeight="1">
@@ -8762,7 +8780,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2">
         <v>14.1</v>
@@ -8777,7 +8795,7 @@
         <v>150000</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>15</v>
@@ -8809,7 +8827,7 @@
         <v>13</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2">
         <v>14.07</v>
@@ -8824,10 +8842,10 @@
         <v>160000</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" s="2">
         <v>90000</v>
@@ -8856,43 +8874,43 @@
         <v>13</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2">
         <v>14.05</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2">
         <v>145500</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="17" customHeight="1">
@@ -8903,7 +8921,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2">
         <v>14.02</v>
@@ -8918,10 +8936,10 @@
         <v>127400</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J25" s="2">
         <v>70900</v>
@@ -8950,7 +8968,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2">
         <v>14.08</v>
@@ -8965,7 +8983,7 @@
         <v>126800</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>15</v>
@@ -8997,43 +9015,43 @@
         <v>13</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2">
         <v>13.01</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2">
         <v>60000</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="17" customHeight="1">
@@ -9044,7 +9062,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D28" s="2">
         <v>14.35</v>
@@ -9059,7 +9077,7 @@
         <v>140000</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>15</v>
@@ -9091,7 +9109,7 @@
         <v>13</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D29" s="2">
         <v>9.01</v>
@@ -9106,10 +9124,10 @@
         <v>121500</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J29" s="2">
         <v>47000</v>
@@ -9138,7 +9156,7 @@
         <v>13</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D30" s="2">
         <v>23.01</v>
@@ -9153,10 +9171,10 @@
         <v>97300</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J30" s="2">
         <v>37500</v>
@@ -9185,7 +9203,7 @@
         <v>13</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2">
         <v>26.01</v>
@@ -9200,7 +9218,7 @@
         <v>79000</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>15</v>
@@ -9232,43 +9250,43 @@
         <v>13</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2">
         <v>40.06</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2">
         <v>118000</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="17" customHeight="1">
@@ -9279,43 +9297,43 @@
         <v>13</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D33" s="2">
         <v>40.05</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2">
         <v>63600</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="17" customHeight="1">
@@ -9326,43 +9344,43 @@
         <v>13</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D34" s="2">
         <v>51.07</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="2">
         <v>54000</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="17" customHeight="1">
@@ -9373,14 +9391,14 @@
         <v>16</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D35" s="2">
         <v>66.66</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2">
-        <v>66000</v>
+        <v>54000</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -9400,14 +9418,14 @@
         <v>16</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="2">
         <v>66.67</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2">
-        <v>66001</v>
+        <v>66000</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -9419,6 +9437,87 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
+    <row r="37" ht="17" customHeight="1">
+      <c r="A37" s="3">
+        <v>999999</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D37" s="2">
+        <v>66.66</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2">
+        <v>72000</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" ht="17" customHeight="1">
+      <c r="A38" s="3">
+        <v>999999</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="D38" s="2">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2">
+        <v>46000</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" ht="17" customHeight="1">
+      <c r="A39" s="2">
+        <v>666666</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D39" s="2">
+        <v>66.68000000000001</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2">
+        <v>28000</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
